--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>biswajit.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>debanjan.das@capgemini.com</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P2"/>
@@ -534,7 +540,7 @@
         <v>Swarnab</v>
       </c>
       <c r="B5" t="str">
-        <f>IFERROR(PROPER(RIGHT(C5,LEN(C5)-FIND("@",SUBSTITUTE(C5,".","@",((LEN(C5)-LEN(SUBSTITUTE(C5,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" ref="B5:B10" si="6">IFERROR(PROPER(RIGHT(C5,LEN(C5)-FIND("@",SUBSTITUTE(C5,".","@",((LEN(C5)-LEN(SUBSTITUTE(C5,".","")))/LEN("\")))))), "Unknown")</f>
         <v>Deb</v>
       </c>
       <c r="C5" t="str">
@@ -564,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <f>COUNTIF(D:D,D5)</f>
+        <f t="shared" ref="P5:P10" si="7">COUNTIF(D:D,D5)</f>
         <v>1</v>
       </c>
     </row>
@@ -574,7 +580,7 @@
         <v>Sandipan</v>
       </c>
       <c r="B6" t="str">
-        <f>IFERROR(PROPER(RIGHT(C6,LEN(C6)-FIND("@",SUBSTITUTE(C6,".","@",((LEN(C6)-LEN(SUBSTITUTE(C6,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="6"/>
         <v>Deb</v>
       </c>
       <c r="C6" t="str">
@@ -604,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <f>COUNTIF(D:D,D6)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -614,7 +620,7 @@
         <v>Biswajit</v>
       </c>
       <c r="B7" t="str">
-        <f>IFERROR(PROPER(RIGHT(C7,LEN(C7)-FIND("@",SUBSTITUTE(C7,".","@",((LEN(C7)-LEN(SUBSTITUTE(C7,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="6"/>
         <v>Deb</v>
       </c>
       <c r="C7" t="str">
@@ -644,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <f>COUNTIF(D:D,D7)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -654,7 +660,7 @@
         <v>Sandipan</v>
       </c>
       <c r="B8" t="str">
-        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="6"/>
         <v>Deb</v>
       </c>
       <c r="C8" t="str">
@@ -684,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <f>COUNTIF(D:D,D8)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -694,7 +700,7 @@
         <v>Biswajit</v>
       </c>
       <c r="B9" t="str">
-        <f>IFERROR(PROPER(RIGHT(C9,LEN(C9)-FIND("@",SUBSTITUTE(C9,".","@",((LEN(C9)-LEN(SUBSTITUTE(C9,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="6"/>
         <v>Deb</v>
       </c>
       <c r="C9" t="str">
@@ -724,8 +730,88 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <f>COUNTIF(D:D,D9)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>PROPER(IFERROR(LEFT(C10,FIND(CHAR(46),C10)-1),C10))</f>
+        <v>Debanjan</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="6"/>
+        <v>Das</v>
+      </c>
+      <c r="C10" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D10,FIND(CHAR(64),D10)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="str">
+        <f>LEFT(H10,FIND(CHAR(46),H10)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F10" t="str">
+        <f>CONCATENATE("ITPartner\",I10)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H10" t="str">
+        <f>RIGHT(D10,LEN(D10)-FIND(CHAR(64),D10))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I10" t="str">
+        <f>PROPER(E10)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>PROPER(IFERROR(LEFT(C11,FIND(CHAR(46),C11)-1),C11))</f>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IFERROR(PROPER(RIGHT(C11,LEN(C11)-FIND("@",SUBSTITUTE(C11,".","@",((LEN(C11)-LEN(SUBSTITUTE(C11,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Kajari</v>
+      </c>
+      <c r="C11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D11,FIND(CHAR(64),D11)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="str">
+        <f>LEFT(H11,FIND(CHAR(46),H11)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE("ITPartner\",I11)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H11" t="str">
+        <f>RIGHT(D11,LEN(D11)-FIND(CHAR(64),D11))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I11" t="str">
+        <f>PROPER(E11)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>COUNTIF(D:D,D11)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P2"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -811,7 +811,87 @@
       </c>
       <c r="P11">
         <f>COUNTIF(D:D,D11)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>PROPER(IFERROR(LEFT(C12,FIND(CHAR(46),C12)-1),C12))</f>
+        <v>Debanjan</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IFERROR(PROPER(RIGHT(C12,LEN(C12)-FIND("@",SUBSTITUTE(C12,".","@",((LEN(C12)-LEN(SUBSTITUTE(C12,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Das</v>
+      </c>
+      <c r="C12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D12,FIND(CHAR(64),D12)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="str">
+        <f>LEFT(H12,FIND(CHAR(46),H12)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F12" t="str">
+        <f>CONCATENATE("ITPartner\",I12)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H12" t="str">
+        <f>RIGHT(D12,LEN(D12)-FIND(CHAR(64),D12))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I12" t="str">
+        <f>PROPER(E12)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f>COUNTIF(D:D,D12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>PROPER(IFERROR(LEFT(C13,FIND(CHAR(46),C13)-1),C13))</f>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IFERROR(PROPER(RIGHT(C13,LEN(C13)-FIND("@",SUBSTITUTE(C13,".","@",((LEN(C13)-LEN(SUBSTITUTE(C13,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Kajari</v>
+      </c>
+      <c r="C13" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D13,FIND(CHAR(64),D13)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="str">
+        <f>LEFT(H13,FIND(CHAR(46),H13)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F13" t="str">
+        <f>CONCATENATE("ITPartner\",I13)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H13" t="str">
+        <f>RIGHT(D13,LEN(D13)-FIND(CHAR(64),D13))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I13" t="str">
+        <f>PROPER(E13)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>COUNTIF(D:D,D13)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>Arif.banduwale@capgemini.com</t>
   </si>
 </sst>
 </file>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P2"/>
@@ -656,7 +662,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <f t="shared" ref="A8:A13" si="8">PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
         <v>Sandipan</v>
       </c>
       <c r="B8" t="str">
@@ -664,26 +670,26 @@
         <v>Deb</v>
       </c>
       <c r="C8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" ref="C8:C13" si="9">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
         <v>sandipan.deb</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="str">
-        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <f t="shared" ref="E8:E13" si="10">LEFT(H8,FIND(CHAR(46),H8)-1)</f>
         <v>capgemini</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE("ITPartner\",I8)</f>
+        <f t="shared" ref="F8:F13" si="11">CONCATENATE("ITPartner\",I8)</f>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H8" t="str">
-        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <f t="shared" ref="H8:H13" si="12">RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
         <v>capgemini.com</v>
       </c>
       <c r="I8" t="str">
-        <f>PROPER(E8)</f>
+        <f t="shared" ref="I8:I13" si="13">PROPER(E8)</f>
         <v>Capgemini</v>
       </c>
       <c r="M8" t="b">
@@ -696,7 +702,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
-        <f>PROPER(IFERROR(LEFT(C9,FIND(CHAR(46),C9)-1),C9))</f>
+        <f t="shared" si="8"/>
         <v>Biswajit</v>
       </c>
       <c r="B9" t="str">
@@ -704,26 +710,26 @@
         <v>Deb</v>
       </c>
       <c r="C9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D9,FIND(CHAR(64),D9)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="9"/>
         <v>biswajit.deb</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="str">
-        <f>LEFT(H9,FIND(CHAR(46),H9)-1)</f>
+        <f t="shared" si="10"/>
         <v>capgemini</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE("ITPartner\",I9)</f>
+        <f t="shared" si="11"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H9" t="str">
-        <f>RIGHT(D9,LEN(D9)-FIND(CHAR(64),D9))</f>
+        <f t="shared" si="12"/>
         <v>capgemini.com</v>
       </c>
       <c r="I9" t="str">
-        <f>PROPER(E9)</f>
+        <f t="shared" si="13"/>
         <v>Capgemini</v>
       </c>
       <c r="M9" t="b">
@@ -736,7 +742,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <f>PROPER(IFERROR(LEFT(C10,FIND(CHAR(46),C10)-1),C10))</f>
+        <f t="shared" si="8"/>
         <v>Debanjan</v>
       </c>
       <c r="B10" t="str">
@@ -744,26 +750,26 @@
         <v>Das</v>
       </c>
       <c r="C10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D10,FIND(CHAR(64),D10)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="9"/>
         <v>debanjan.das</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="str">
-        <f>LEFT(H10,FIND(CHAR(46),H10)-1)</f>
+        <f t="shared" si="10"/>
         <v>capgemini</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE("ITPartner\",I10)</f>
+        <f t="shared" si="11"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H10" t="str">
-        <f>RIGHT(D10,LEN(D10)-FIND(CHAR(64),D10))</f>
+        <f t="shared" si="12"/>
         <v>capgemini.com</v>
       </c>
       <c r="I10" t="str">
-        <f>PROPER(E10)</f>
+        <f t="shared" si="13"/>
         <v>Capgemini</v>
       </c>
       <c r="M10" t="b">
@@ -776,121 +782,281 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f>PROPER(IFERROR(LEFT(C11,FIND(CHAR(46),C11)-1),C11))</f>
+        <f t="shared" si="8"/>
         <v>Dhiraj</v>
       </c>
       <c r="B11" t="str">
-        <f>IFERROR(PROPER(RIGHT(C11,LEN(C11)-FIND("@",SUBSTITUTE(C11,".","@",((LEN(C11)-LEN(SUBSTITUTE(C11,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" ref="B11:B16" si="14">IFERROR(PROPER(RIGHT(C11,LEN(C11)-FIND("@",SUBSTITUTE(C11,".","@",((LEN(C11)-LEN(SUBSTITUTE(C11,".","")))/LEN("\")))))), "Unknown")</f>
         <v>Kajari</v>
       </c>
       <c r="C11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D11,FIND(CHAR(64),D11)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="9"/>
         <v>dhiraj.kajari</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="str">
-        <f>LEFT(H11,FIND(CHAR(46),H11)-1)</f>
+        <f t="shared" si="10"/>
         <v>capgemini</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE("ITPartner\",I11)</f>
+        <f t="shared" si="11"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H11" t="str">
-        <f>RIGHT(D11,LEN(D11)-FIND(CHAR(64),D11))</f>
+        <f t="shared" si="12"/>
         <v>capgemini.com</v>
       </c>
       <c r="I11" t="str">
-        <f>PROPER(E11)</f>
+        <f t="shared" si="13"/>
         <v>Capgemini</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="P11">
-        <f>COUNTIF(D:D,D11)</f>
+        <f t="shared" ref="P11:P16" si="15">COUNTIF(D:D,D11)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <f>PROPER(IFERROR(LEFT(C12,FIND(CHAR(46),C12)-1),C12))</f>
+        <f t="shared" si="8"/>
         <v>Debanjan</v>
       </c>
       <c r="B12" t="str">
-        <f>IFERROR(PROPER(RIGHT(C12,LEN(C12)-FIND("@",SUBSTITUTE(C12,".","@",((LEN(C12)-LEN(SUBSTITUTE(C12,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="14"/>
         <v>Das</v>
       </c>
       <c r="C12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D12,FIND(CHAR(64),D12)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="9"/>
         <v>debanjan.das</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="str">
-        <f>LEFT(H12,FIND(CHAR(46),H12)-1)</f>
+        <f t="shared" si="10"/>
         <v>capgemini</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE("ITPartner\",I12)</f>
+        <f t="shared" si="11"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H12" t="str">
-        <f>RIGHT(D12,LEN(D12)-FIND(CHAR(64),D12))</f>
+        <f t="shared" si="12"/>
         <v>capgemini.com</v>
       </c>
       <c r="I12" t="str">
-        <f>PROPER(E12)</f>
+        <f t="shared" si="13"/>
         <v>Capgemini</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="P12">
-        <f>COUNTIF(D:D,D12)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f>PROPER(IFERROR(LEFT(C13,FIND(CHAR(46),C13)-1),C13))</f>
+        <f t="shared" si="8"/>
         <v>Dhiraj</v>
       </c>
       <c r="B13" t="str">
-        <f>IFERROR(PROPER(RIGHT(C13,LEN(C13)-FIND("@",SUBSTITUTE(C13,".","@",((LEN(C13)-LEN(SUBSTITUTE(C13,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="14"/>
         <v>Kajari</v>
       </c>
       <c r="C13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D13,FIND(CHAR(64),D13)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="9"/>
         <v>dhiraj.kajari</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="str">
-        <f>LEFT(H13,FIND(CHAR(46),H13)-1)</f>
+        <f t="shared" si="10"/>
         <v>capgemini</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE("ITPartner\",I13)</f>
+        <f t="shared" si="11"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H13" t="str">
-        <f>RIGHT(D13,LEN(D13)-FIND(CHAR(64),D13))</f>
+        <f t="shared" si="12"/>
         <v>capgemini.com</v>
       </c>
       <c r="I13" t="str">
-        <f>PROPER(E13)</f>
+        <f t="shared" si="13"/>
         <v>Capgemini</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="P13">
-        <f>COUNTIF(D:D,D13)</f>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>PROPER(IFERROR(LEFT(C14,FIND(CHAR(46),C14)-1),C14))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="14"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D14,FIND(CHAR(64),D14)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="str">
+        <f>LEFT(H14,FIND(CHAR(46),H14)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F14" t="str">
+        <f>CONCATENATE("ITPartner\",I14)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H14" t="str">
+        <f>RIGHT(D14,LEN(D14)-FIND(CHAR(64),D14))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I14" t="str">
+        <f>PROPER(E14)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>PROPER(IFERROR(LEFT(C15,FIND(CHAR(46),C15)-1),C15))</f>
+        <v>Arif</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="14"/>
+        <v>Banduwale</v>
+      </c>
+      <c r="C15" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D15,FIND(CHAR(64),D15)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>arif.banduwale</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="str">
+        <f>LEFT(H15,FIND(CHAR(46),H15)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE("ITPartner\",I15)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H15" t="str">
+        <f>RIGHT(D15,LEN(D15)-FIND(CHAR(64),D15))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I15" t="str">
+        <f>PROPER(E15)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>PROPER(IFERROR(LEFT(C16,FIND(CHAR(46),C16)-1),C16))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="14"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C16" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D16,FIND(CHAR(64),D16)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="str">
+        <f>LEFT(H16,FIND(CHAR(46),H16)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F16" t="str">
+        <f>CONCATENATE("ITPartner\",I16)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H16" t="str">
+        <f>RIGHT(D16,LEN(D16)-FIND(CHAR(64),D16))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I16" t="str">
+        <f>PROPER(E16)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>PROPER(IFERROR(LEFT(C17,FIND(CHAR(46),C17)-1),C17))</f>
+        <v>Arif</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IFERROR(PROPER(RIGHT(C17,LEN(C17)-FIND("@",SUBSTITUTE(C17,".","@",((LEN(C17)-LEN(SUBSTITUTE(C17,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Banduwale</v>
+      </c>
+      <c r="C17" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D17,FIND(CHAR(64),D17)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>arif.banduwale</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="str">
+        <f>LEFT(H17,FIND(CHAR(46),H17)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F17" t="str">
+        <f>CONCATENATE("ITPartner\",I17)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H17" t="str">
+        <f>RIGHT(D17,LEN(D17)-FIND(CHAR(64),D17))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I17" t="str">
+        <f>PROPER(E17)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f>COUNTIF(D:D,D17)</f>
         <v>2</v>
       </c>
     </row>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P2"/>
@@ -937,7 +937,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,87 @@
       </c>
       <c r="P17">
         <f>COUNTIF(D:D,D17)</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>PROPER(IFERROR(LEFT(C18,FIND(CHAR(46),C18)-1),C18))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IFERROR(PROPER(RIGHT(C18,LEN(C18)-FIND("@",SUBSTITUTE(C18,".","@",((LEN(C18)-LEN(SUBSTITUTE(C18,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C18" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D18,FIND(CHAR(64),D18)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="str">
+        <f>LEFT(H18,FIND(CHAR(46),H18)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F18" t="str">
+        <f>CONCATENATE("ITPartner\",I18)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H18" t="str">
+        <f>RIGHT(D18,LEN(D18)-FIND(CHAR(64),D18))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I18" t="str">
+        <f>PROPER(E18)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f>COUNTIF(D:D,D18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>PROPER(IFERROR(LEFT(C19,FIND(CHAR(46),C19)-1),C19))</f>
+        <v>Arif</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IFERROR(PROPER(RIGHT(C19,LEN(C19)-FIND("@",SUBSTITUTE(C19,".","@",((LEN(C19)-LEN(SUBSTITUTE(C19,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Banduwale</v>
+      </c>
+      <c r="C19" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D19,FIND(CHAR(64),D19)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>arif.banduwale</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="str">
+        <f>LEFT(H19,FIND(CHAR(46),H19)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F19" t="str">
+        <f>CONCATENATE("ITPartner\",I19)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H19" t="str">
+        <f>RIGHT(D19,LEN(D19)-FIND(CHAR(64),D19))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I19" t="str">
+        <f>PROPER(E19)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f>COUNTIF(D:D,D19)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>Arif.banduwale@capgemini.com</t>
+  </si>
+  <si>
+    <t>P%+G"])5bYm#</t>
+  </si>
+  <si>
+    <t>U!?%FkNE=zRS</t>
+  </si>
+  <si>
+    <t>T=h0sYVoMg!1</t>
+  </si>
+  <si>
+    <t>$2}{QaidNu=7</t>
   </si>
 </sst>
 </file>
@@ -397,9 +409,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
@@ -413,6 +425,8 @@
     <col min="6" max="6" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -902,7 +916,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f>PROPER(IFERROR(LEFT(C14,FIND(CHAR(46),C14)-1),C14))</f>
+        <f t="shared" ref="A14:A19" si="16">PROPER(IFERROR(LEFT(C14,FIND(CHAR(46),C14)-1),C14))</f>
         <v>Mayur</v>
       </c>
       <c r="B14" t="str">
@@ -910,26 +924,26 @@
         <v>Bhorkar</v>
       </c>
       <c r="C14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D14,FIND(CHAR(64),D14)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" ref="C14:C19" si="17">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D14,FIND(CHAR(64),D14)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
         <v>mayur.bhorkar</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="str">
-        <f>LEFT(H14,FIND(CHAR(46),H14)-1)</f>
+        <f t="shared" ref="E14:E19" si="18">LEFT(H14,FIND(CHAR(46),H14)-1)</f>
         <v>capgemini</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE("ITPartner\",I14)</f>
+        <f t="shared" ref="F14:F19" si="19">CONCATENATE("ITPartner\",I14)</f>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H14" t="str">
-        <f>RIGHT(D14,LEN(D14)-FIND(CHAR(64),D14))</f>
+        <f t="shared" ref="H14:H19" si="20">RIGHT(D14,LEN(D14)-FIND(CHAR(64),D14))</f>
         <v>capgemini.com</v>
       </c>
       <c r="I14" t="str">
-        <f>PROPER(E14)</f>
+        <f t="shared" ref="I14:I19" si="21">PROPER(E14)</f>
         <v>Capgemini</v>
       </c>
       <c r="M14" t="b">
@@ -937,12 +951,12 @@
       </c>
       <c r="P14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <f>PROPER(IFERROR(LEFT(C15,FIND(CHAR(46),C15)-1),C15))</f>
+        <f t="shared" si="16"/>
         <v>Arif</v>
       </c>
       <c r="B15" t="str">
@@ -950,26 +964,26 @@
         <v>Banduwale</v>
       </c>
       <c r="C15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D15,FIND(CHAR(64),D15)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="17"/>
         <v>arif.banduwale</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="str">
-        <f>LEFT(H15,FIND(CHAR(46),H15)-1)</f>
+        <f t="shared" si="18"/>
         <v>capgemini</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE("ITPartner\",I15)</f>
+        <f t="shared" si="19"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H15" t="str">
-        <f>RIGHT(D15,LEN(D15)-FIND(CHAR(64),D15))</f>
+        <f t="shared" si="20"/>
         <v>capgemini.com</v>
       </c>
       <c r="I15" t="str">
-        <f>PROPER(E15)</f>
+        <f t="shared" si="21"/>
         <v>Capgemini</v>
       </c>
       <c r="M15" t="b">
@@ -977,12 +991,12 @@
       </c>
       <c r="P15">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
-        <f>PROPER(IFERROR(LEFT(C16,FIND(CHAR(46),C16)-1),C16))</f>
+        <f t="shared" si="16"/>
         <v>Mayur</v>
       </c>
       <c r="B16" t="str">
@@ -990,26 +1004,26 @@
         <v>Bhorkar</v>
       </c>
       <c r="C16" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D16,FIND(CHAR(64),D16)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="17"/>
         <v>mayur.bhorkar</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="str">
-        <f>LEFT(H16,FIND(CHAR(46),H16)-1)</f>
+        <f t="shared" si="18"/>
         <v>capgemini</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE("ITPartner\",I16)</f>
+        <f t="shared" si="19"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H16" t="str">
-        <f>RIGHT(D16,LEN(D16)-FIND(CHAR(64),D16))</f>
+        <f t="shared" si="20"/>
         <v>capgemini.com</v>
       </c>
       <c r="I16" t="str">
-        <f>PROPER(E16)</f>
+        <f t="shared" si="21"/>
         <v>Capgemini</v>
       </c>
       <c r="M16" t="b">
@@ -1017,127 +1031,379 @@
       </c>
       <c r="P16">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
-        <f>PROPER(IFERROR(LEFT(C17,FIND(CHAR(46),C17)-1),C17))</f>
+        <f t="shared" si="16"/>
         <v>Arif</v>
       </c>
       <c r="B17" t="str">
-        <f>IFERROR(PROPER(RIGHT(C17,LEN(C17)-FIND("@",SUBSTITUTE(C17,".","@",((LEN(C17)-LEN(SUBSTITUTE(C17,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" ref="B17:B22" si="22">IFERROR(PROPER(RIGHT(C17,LEN(C17)-FIND("@",SUBSTITUTE(C17,".","@",((LEN(C17)-LEN(SUBSTITUTE(C17,".","")))/LEN("\")))))), "Unknown")</f>
         <v>Banduwale</v>
       </c>
       <c r="C17" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D17,FIND(CHAR(64),D17)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="17"/>
         <v>arif.banduwale</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="str">
-        <f>LEFT(H17,FIND(CHAR(46),H17)-1)</f>
+        <f t="shared" si="18"/>
         <v>capgemini</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE("ITPartner\",I17)</f>
+        <f t="shared" si="19"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H17" t="str">
-        <f>RIGHT(D17,LEN(D17)-FIND(CHAR(64),D17))</f>
+        <f t="shared" si="20"/>
         <v>capgemini.com</v>
       </c>
       <c r="I17" t="str">
-        <f>PROPER(E17)</f>
+        <f t="shared" si="21"/>
         <v>Capgemini</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="P17">
-        <f>COUNTIF(D:D,D17)</f>
-        <v>3</v>
+        <f t="shared" ref="P17:P22" si="23">COUNTIF(D:D,D17)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
-        <f>PROPER(IFERROR(LEFT(C18,FIND(CHAR(46),C18)-1),C18))</f>
+        <f t="shared" si="16"/>
         <v>Mayur</v>
       </c>
       <c r="B18" t="str">
-        <f>IFERROR(PROPER(RIGHT(C18,LEN(C18)-FIND("@",SUBSTITUTE(C18,".","@",((LEN(C18)-LEN(SUBSTITUTE(C18,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="22"/>
         <v>Bhorkar</v>
       </c>
       <c r="C18" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D18,FIND(CHAR(64),D18)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="17"/>
         <v>mayur.bhorkar</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="str">
-        <f>LEFT(H18,FIND(CHAR(46),H18)-1)</f>
+        <f t="shared" si="18"/>
         <v>capgemini</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE("ITPartner\",I18)</f>
+        <f t="shared" si="19"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H18" t="str">
-        <f>RIGHT(D18,LEN(D18)-FIND(CHAR(64),D18))</f>
+        <f t="shared" si="20"/>
         <v>capgemini.com</v>
       </c>
       <c r="I18" t="str">
-        <f>PROPER(E18)</f>
+        <f t="shared" si="21"/>
         <v>Capgemini</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="P18">
-        <f>COUNTIF(D:D,D18)</f>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
-        <f>PROPER(IFERROR(LEFT(C19,FIND(CHAR(46),C19)-1),C19))</f>
+        <f t="shared" si="16"/>
         <v>Arif</v>
       </c>
       <c r="B19" t="str">
-        <f>IFERROR(PROPER(RIGHT(C19,LEN(C19)-FIND("@",SUBSTITUTE(C19,".","@",((LEN(C19)-LEN(SUBSTITUTE(C19,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="22"/>
         <v>Banduwale</v>
       </c>
       <c r="C19" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D19,FIND(CHAR(64),D19)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="17"/>
         <v>arif.banduwale</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="str">
-        <f>LEFT(H19,FIND(CHAR(46),H19)-1)</f>
+        <f t="shared" si="18"/>
         <v>capgemini</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE("ITPartner\",I19)</f>
+        <f t="shared" si="19"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H19" t="str">
-        <f>RIGHT(D19,LEN(D19)-FIND(CHAR(64),D19))</f>
+        <f t="shared" si="20"/>
         <v>capgemini.com</v>
       </c>
       <c r="I19" t="str">
-        <f>PROPER(E19)</f>
+        <f t="shared" si="21"/>
         <v>Capgemini</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="P19">
-        <f>COUNTIF(D:D,D19)</f>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>PROPER(IFERROR(LEFT(C20,FIND(CHAR(46),C20)-1),C20))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="22"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C20" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D20,FIND(CHAR(64),D20)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="str">
+        <f>LEFT(H20,FIND(CHAR(46),H20)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F20" t="str">
+        <f>CONCATENATE("ITPartner\",I20)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H20" t="str">
+        <f>RIGHT(D20,LEN(D20)-FIND(CHAR(64),D20))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I20" t="str">
+        <f>PROPER(E20)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>PROPER(IFERROR(LEFT(C21,FIND(CHAR(46),C21)-1),C21))</f>
+        <v>Arif</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="22"/>
+        <v>Banduwale</v>
+      </c>
+      <c r="C21" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D21,FIND(CHAR(64),D21)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>arif.banduwale</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="str">
+        <f>LEFT(H21,FIND(CHAR(46),H21)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F21" t="str">
+        <f>CONCATENATE("ITPartner\",I21)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H21" t="str">
+        <f>RIGHT(D21,LEN(D21)-FIND(CHAR(64),D21))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I21" t="str">
+        <f>PROPER(E21)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>PROPER(IFERROR(LEFT(C22,FIND(CHAR(46),C22)-1),C22))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="22"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C22" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D22,FIND(CHAR(64),D22)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="str">
+        <f>LEFT(H22,FIND(CHAR(46),H22)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F22" t="str">
+        <f>CONCATENATE("ITPartner\",I22)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H22" t="str">
+        <f>RIGHT(D22,LEN(D22)-FIND(CHAR(64),D22))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I22" t="str">
+        <f>PROPER(E22)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>PROPER(IFERROR(LEFT(C23,FIND(CHAR(46),C23)-1),C23))</f>
+        <v>Arif</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IFERROR(PROPER(RIGHT(C23,LEN(C23)-FIND("@",SUBSTITUTE(C23,".","@",((LEN(C23)-LEN(SUBSTITUTE(C23,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Banduwale</v>
+      </c>
+      <c r="C23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D23,FIND(CHAR(64),D23)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>arif.banduwale</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="str">
+        <f>LEFT(H23,FIND(CHAR(46),H23)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F23" t="str">
+        <f>CONCATENATE("ITPartner\",I23)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H23" t="str">
+        <f>RIGHT(D23,LEN(D23)-FIND(CHAR(64),D23))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I23" t="str">
+        <f>PROPER(E23)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f>COUNTIF(D:D,D23)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>PROPER(IFERROR(LEFT(C24,FIND(CHAR(46),C24)-1),C24))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IFERROR(PROPER(RIGHT(C24,LEN(C24)-FIND("@",SUBSTITUTE(C24,".","@",((LEN(C24)-LEN(SUBSTITUTE(C24,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C24" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D24,FIND(CHAR(64),D24)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="str">
+        <f>LEFT(H24,FIND(CHAR(46),H24)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F24" t="str">
+        <f>CONCATENATE("ITPartner\",I24)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H24" t="str">
+        <f>RIGHT(D24,LEN(D24)-FIND(CHAR(64),D24))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I24" t="str">
+        <f>PROPER(E24)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f>COUNTIF(D:D,D24)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>PROPER(IFERROR(LEFT(C25,FIND(CHAR(46),C25)-1),C25))</f>
+        <v>Arif</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IFERROR(PROPER(RIGHT(C25,LEN(C25)-FIND("@",SUBSTITUTE(C25,".","@",((LEN(C25)-LEN(SUBSTITUTE(C25,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Banduwale</v>
+      </c>
+      <c r="C25" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D25,FIND(CHAR(64),D25)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>arif.banduwale</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="str">
+        <f>LEFT(H25,FIND(CHAR(46),H25)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F25" t="str">
+        <f>CONCATENATE("ITPartner\",I25)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H25" t="str">
+        <f>RIGHT(D25,LEN(D25)-FIND(CHAR(64),D25))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I25" t="str">
+        <f>PROPER(E25)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f>COUNTIF(D:D,D25)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -26,6 +26,54 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>sourabh.awasthi@capgemini.com</t>
+  </si>
+  <si>
+    <t>Mdhf$D@=xmms</t>
+  </si>
+  <si>
+    <t>sandipan.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>#D"RKA#6gRD[</t>
+  </si>
+  <si>
+    <t>biswajit.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>3U&amp;&amp;h1+Q}J18</t>
+  </si>
+  <si>
+    <t>debanjan.das@capgemini.com</t>
+  </si>
+  <si>
+    <t>5Vt8NNxkP5l%</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>lkOu&amp;K/0mE&amp;F</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>D/AfcD8i[#nh</t>
+  </si>
+  <si>
+    <t>Arif.banduwale@capgemini.com</t>
+  </si>
+  <si>
+    <t>ecGNZdYSvP3m</t>
+  </si>
+  <si>
+    <t>manoj-kumar.b.s@capgemini.com</t>
+  </si>
+  <si>
+    <t>E$AXB/?{H/iT</t>
   </si>
 </sst>
 </file>
@@ -367,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P25"/>
@@ -387,7 +435,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,6 +447,374 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
+        <v>Sourabh</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Awasthi</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="2"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Biswajit</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>biswajit.deb</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Das</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayur</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <v>Arif</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Banduwale</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>arif.banduwale</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="str">
+        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("ITPartner\",I8)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H8" t="str">
+        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I8" t="str">
+        <f>PROPER(E8)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(D:D,D8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>PROPER(IFERROR(LEFT(C9,FIND(CHAR(46),C9)-1),C9))</f>
+        <v>Manoj</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IFERROR(PROPER(RIGHT(C9,LEN(C9)-FIND("@",SUBSTITUTE(C9,".","@",((LEN(C9)-LEN(SUBSTITUTE(C9,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>S</v>
+      </c>
+      <c r="C9" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D9,FIND(CHAR(64),D9)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="str">
+        <f>LEFT(H9,FIND(CHAR(46),H9)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F9" t="str">
+        <f>CONCATENATE("ITPartner\",I9)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H9" t="str">
+        <f>RIGHT(D9,LEN(D9)-FIND(CHAR(64),D9))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I9" t="str">
+        <f>PROPER(E9)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f>COUNTIF(D:D,D9)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -26,6 +26,48 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>sourabh.awasthi@capgemini.com</t>
+  </si>
+  <si>
+    <t>o8{5D}@3T7Dd</t>
+  </si>
+  <si>
+    <t>sandipan.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>p@#35!7XJxaH</t>
+  </si>
+  <si>
+    <t>biswajit.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>biyD9U%uMV1g</t>
+  </si>
+  <si>
+    <t>debanjan.das@capgemini.com</t>
+  </si>
+  <si>
+    <t>NTFJ}kI)1VgE</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>d+h$%RNs6KHS</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>m=A#UPx5}lgY</t>
+  </si>
+  <si>
+    <t>manoj-kumar.b.s@capgemini.com</t>
+  </si>
+  <si>
+    <t>{AnbwofBQ*d0</t>
   </si>
 </sst>
 </file>
@@ -367,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P25"/>
@@ -387,7 +429,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,6 +441,328 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
+        <v>Sourabh</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Awasthi</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="2"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Biswajit</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>biswajit.deb</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Das</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayur</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <v>Manoj</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>S</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="str">
+        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("ITPartner\",I8)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H8" t="str">
+        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I8" t="str">
+        <f>PROPER(E8)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(D:D,D8)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FirstName</t>
   </si>
@@ -26,48 +26,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>sourabh.awasthi@capgemini.com</t>
-  </si>
-  <si>
-    <t>o8{5D}@3T7Dd</t>
-  </si>
-  <si>
-    <t>sandipan.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>p@#35!7XJxaH</t>
-  </si>
-  <si>
-    <t>biswajit.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>biyD9U%uMV1g</t>
-  </si>
-  <si>
-    <t>debanjan.das@capgemini.com</t>
-  </si>
-  <si>
-    <t>NTFJ}kI)1VgE</t>
-  </si>
-  <si>
-    <t>dhiraj.kajari@capgemini.com</t>
-  </si>
-  <si>
-    <t>d+h$%RNs6KHS</t>
-  </si>
-  <si>
-    <t>mayur.bhorkar@capgemini.com</t>
-  </si>
-  <si>
-    <t>m=A#UPx5}lgY</t>
-  </si>
-  <si>
-    <t>manoj-kumar.b.s@capgemini.com</t>
-  </si>
-  <si>
-    <t>{AnbwofBQ*d0</t>
   </si>
 </sst>
 </file>
@@ -409,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P25"/>
@@ -429,7 +387,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,328 +401,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
-        <v>Sourabh</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>Awasthi</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>sourabh.awasthi</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandipan</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="2"/>
-        <v>sandipan.deb</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Biswajit</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
-        <v>biswajit.deb</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Debanjan</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Das</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>debanjan.das</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Dhiraj</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Kajari</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>dhiraj.kajari</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>80</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Mayur</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>Bhorkar</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>mayur.bhorkar</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>80</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
-        <v>Manoj</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>S</v>
-      </c>
-      <c r="C8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>manoj.kumar.b.s</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="str">
-        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE("ITPartner\",I8)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H8" t="str">
-        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I8" t="str">
-        <f>PROPER(E8)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>80</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f>COUNTIF(D:D,D8)</f>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -404,4 +405,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -27,6 +27,51 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>sourabh.awasthi@capgemini.com</t>
+  </si>
+  <si>
+    <t>[Any2m(J43F*</t>
+  </si>
+  <si>
+    <t>sandipan.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>iptAP7Y$OEx{</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>biswajit.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>bZv$tr486biN</t>
+  </si>
+  <si>
+    <t>debanjan.das@capgemini.com</t>
+  </si>
+  <si>
+    <t>wE?}?"5+y6tE</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>VpYIVt=nI@$v</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>t@c%**O*T@Jo</t>
+  </si>
+  <si>
+    <t>manoj-kumar.b.s@capgemini.com</t>
+  </si>
+  <si>
+    <t>xU")eOY4[N#3</t>
   </si>
 </sst>
 </file>
@@ -368,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P25"/>
@@ -388,7 +433,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,6 +445,328 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
+        <v>Sourabh</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Awasthi</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="2"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Biswajit</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>biswajit.deb</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Das</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayur</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <v>Manoj</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>S</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="str">
+        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("ITPartner\",I8)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H8" t="str">
+        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I8" t="str">
+        <f>PROPER(E8)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(D:D,D8)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -409,12 +776,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FirstName</t>
   </si>
@@ -27,51 +27,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>sourabh.awasthi@capgemini.com</t>
-  </si>
-  <si>
-    <t>[Any2m(J43F*</t>
-  </si>
-  <si>
-    <t>sandipan.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>iptAP7Y$OEx{</t>
-  </si>
-  <si>
-    <t>Capgemini</t>
-  </si>
-  <si>
-    <t>biswajit.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>bZv$tr486biN</t>
-  </si>
-  <si>
-    <t>debanjan.das@capgemini.com</t>
-  </si>
-  <si>
-    <t>wE?}?"5+y6tE</t>
-  </si>
-  <si>
-    <t>dhiraj.kajari@capgemini.com</t>
-  </si>
-  <si>
-    <t>VpYIVt=nI@$v</t>
-  </si>
-  <si>
-    <t>mayur.bhorkar@capgemini.com</t>
-  </si>
-  <si>
-    <t>t@c%**O*T@Jo</t>
-  </si>
-  <si>
-    <t>manoj-kumar.b.s@capgemini.com</t>
-  </si>
-  <si>
-    <t>xU")eOY4[N#3</t>
   </si>
 </sst>
 </file>
@@ -413,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P25"/>
@@ -433,7 +388,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,328 +402,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
-        <v>Sourabh</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>Awasthi</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>sourabh.awasthi</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandipan</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="2"/>
-        <v>sandipan.deb</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Biswajit</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
-        <v>biswajit.deb</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Debanjan</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Das</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>debanjan.das</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Dhiraj</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Kajari</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>dhiraj.kajari</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>80</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Mayur</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>Bhorkar</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>mayur.bhorkar</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>80</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
-        <v>Manoj</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>S</v>
-      </c>
-      <c r="C8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>manoj.kumar.b.s</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="str">
-        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE("ITPartner\",I8)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H8" t="str">
-        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I8" t="str">
-        <f>PROPER(E8)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>80</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f>COUNTIF(D:D,D8)</f>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -776,18 +409,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -27,6 +27,51 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>sourabh.awasthi@capgemini.com</t>
+  </si>
+  <si>
+    <t>pLgknCtnPL]K</t>
+  </si>
+  <si>
+    <t>sandipan.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>6xA2pWyl@$g?</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>biswaji.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>c2h]RMmKmhFz</t>
+  </si>
+  <si>
+    <t>debanjan.das@capgemini.com</t>
+  </si>
+  <si>
+    <t>VN5cEXfU*X)B</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>tR5i#!sWVo(A</t>
+  </si>
+  <si>
+    <t>manoj-kumar.b.s@capgemini.com</t>
+  </si>
+  <si>
+    <t>gvfzVJ+VT?&amp;v</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>fLUi]A?uP049</t>
   </si>
 </sst>
 </file>
@@ -368,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P25"/>
@@ -388,7 +433,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,6 +445,328 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
+        <v>Sourabh</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Awasthi</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="2"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Biswaji</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>biswaji.deb</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Das</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Manoj</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="str">
+        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("ITPartner\",I8)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H8" t="str">
+        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I8" t="str">
+        <f>PROPER(E8)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(D:D,D8)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -409,14 +776,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FirstName</t>
   </si>
@@ -29,49 +29,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>sourabh.awasthi@capgemini.com</t>
-  </si>
-  <si>
-    <t>pLgknCtnPL]K</t>
-  </si>
-  <si>
-    <t>sandipan.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>6xA2pWyl@$g?</t>
-  </si>
-  <si>
-    <t>Capgemini</t>
-  </si>
-  <si>
-    <t>biswaji.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>c2h]RMmKmhFz</t>
-  </si>
-  <si>
-    <t>debanjan.das@capgemini.com</t>
-  </si>
-  <si>
-    <t>VN5cEXfU*X)B</t>
-  </si>
-  <si>
-    <t>dhiraj.kajari@capgemini.com</t>
-  </si>
-  <si>
-    <t>tR5i#!sWVo(A</t>
-  </si>
-  <si>
-    <t>manoj-kumar.b.s@capgemini.com</t>
-  </si>
-  <si>
-    <t>gvfzVJ+VT?&amp;v</t>
-  </si>
-  <si>
-    <t>mayur.bhorkar@capgemini.com</t>
-  </si>
-  <si>
-    <t>fLUi]A?uP049</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Company</t>
   </si>
 </sst>
 </file>
@@ -413,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P25"/>
+      <selection activeCell="A2" sqref="A2:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +394,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,328 +406,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
-        <v>Sourabh</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>Awasthi</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>sourabh.awasthi</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandipan</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="2"/>
-        <v>sandipan.deb</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Biswaji</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
-        <v>biswaji.deb</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Debanjan</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Das</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>debanjan.das</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Dhiraj</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Kajari</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>dhiraj.kajari</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>80</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Manoj</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>S</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>manoj.kumar.b.s</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>80</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
-        <v>Mayur</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>Bhorkar</v>
-      </c>
-      <c r="C8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>mayur.bhorkar</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="str">
-        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE("ITPartner\",I8)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H8" t="str">
-        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I8" t="str">
-        <f>PROPER(E8)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>80</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f>COUNTIF(D:D,D8)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -776,20 +415,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I2"/>
+  <dimension ref="C1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
@@ -33,6 +33,54 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>sourabh.awasthi@capgemini.com</t>
+  </si>
+  <si>
+    <t>2dzo3m()F+Dl</t>
+  </si>
+  <si>
+    <t>sandipan.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>cg]6F)cxa}tE</t>
+  </si>
+  <si>
+    <t>sandipan.deb</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>biswaji.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>W@l3H%(O*Twr</t>
+  </si>
+  <si>
+    <t>debanjan.das@capgemini.com</t>
+  </si>
+  <si>
+    <t>4VZBJZv+naBU</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>3}{N?*W@D1u]</t>
+  </si>
+  <si>
+    <t>manoj-kumar.b.s@capgemini.com</t>
+  </si>
+  <si>
+    <t>&amp;1IlV6S3rGH%</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>p=nLFilY0!uh</t>
   </si>
 </sst>
 </file>
@@ -374,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P8"/>
@@ -394,7 +442,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +454,328 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
+        <v>Sourabh</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Awasthi</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="2"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Biswaji</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>biswaji.deb</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Das</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Manoj</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="str">
+        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("ITPartner\",I8)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H8" t="str">
+        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I8" t="str">
+        <f>PROPER(E8)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(D:D,D8)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -415,7 +785,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I1"/>
+  <dimension ref="C1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -435,6 +805,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FirstName</t>
   </si>
@@ -33,54 +33,6 @@
   </si>
   <si>
     <t>Company</t>
-  </si>
-  <si>
-    <t>sourabh.awasthi@capgemini.com</t>
-  </si>
-  <si>
-    <t>2dzo3m()F+Dl</t>
-  </si>
-  <si>
-    <t>sandipan.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>cg]6F)cxa}tE</t>
-  </si>
-  <si>
-    <t>sandipan.deb</t>
-  </si>
-  <si>
-    <t>Capgemini</t>
-  </si>
-  <si>
-    <t>biswaji.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>W@l3H%(O*Twr</t>
-  </si>
-  <si>
-    <t>debanjan.das@capgemini.com</t>
-  </si>
-  <si>
-    <t>4VZBJZv+naBU</t>
-  </si>
-  <si>
-    <t>dhiraj.kajari@capgemini.com</t>
-  </si>
-  <si>
-    <t>3}{N?*W@D1u]</t>
-  </si>
-  <si>
-    <t>manoj-kumar.b.s@capgemini.com</t>
-  </si>
-  <si>
-    <t>&amp;1IlV6S3rGH%</t>
-  </si>
-  <si>
-    <t>mayur.bhorkar@capgemini.com</t>
-  </si>
-  <si>
-    <t>p=nLFilY0!uh</t>
   </si>
 </sst>
 </file>
@@ -422,9 +374,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P8"/>
     </sheetView>
   </sheetViews>
@@ -442,7 +394,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,328 +406,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
-        <v>Sourabh</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>Awasthi</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>sourabh.awasthi</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandipan</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="2"/>
-        <v>sandipan.deb</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Biswaji</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
-        <v>biswaji.deb</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Debanjan</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Das</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>debanjan.das</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Dhiraj</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Kajari</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>dhiraj.kajari</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>80</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Manoj</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>S</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>manoj.kumar.b.s</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>80</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
-        <v>Mayur</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>Bhorkar</v>
-      </c>
-      <c r="C8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>mayur.bhorkar</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="str">
-        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE("ITPartner\",I8)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H8" t="str">
-        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I8" t="str">
-        <f>PROPER(E8)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>80</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f>COUNTIF(D:D,D8)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I3"/>
+  <dimension ref="C1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,22 +435,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -33,6 +33,48 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>sourabh.awasthi@capgemini.com</t>
+  </si>
+  <si>
+    <t>#024fL9?"Ynx</t>
+  </si>
+  <si>
+    <t>sandipan.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>f}Fd/th3Y6(2</t>
+  </si>
+  <si>
+    <t>sandipan.deb</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>biswaji.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>OSgRR5AtJg/[</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>$02[)"tS#!Cf</t>
+  </si>
+  <si>
+    <t>manoj-kumar.b.s@capgemini.com</t>
+  </si>
+  <si>
+    <t>&amp;+vc]#h((WpF</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>L!smG}o?gdA?</t>
   </si>
 </sst>
 </file>
@@ -374,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P8"/>
@@ -394,7 +436,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +448,282 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
+        <v>Sourabh</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Awasthi</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="2"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Biswaji</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>biswaji.deb</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Manoj</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayur</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -415,7 +733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I1"/>
+  <dimension ref="C1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I3"/>
@@ -435,6 +753,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FirstName</t>
   </si>
@@ -33,48 +33,6 @@
   </si>
   <si>
     <t>Company</t>
-  </si>
-  <si>
-    <t>sourabh.awasthi@capgemini.com</t>
-  </si>
-  <si>
-    <t>#024fL9?"Ynx</t>
-  </si>
-  <si>
-    <t>sandipan.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>f}Fd/th3Y6(2</t>
-  </si>
-  <si>
-    <t>sandipan.deb</t>
-  </si>
-  <si>
-    <t>Capgemini</t>
-  </si>
-  <si>
-    <t>biswaji.deb@capgemini.com</t>
-  </si>
-  <si>
-    <t>OSgRR5AtJg/[</t>
-  </si>
-  <si>
-    <t>dhiraj.kajari@capgemini.com</t>
-  </si>
-  <si>
-    <t>$02[)"tS#!Cf</t>
-  </si>
-  <si>
-    <t>manoj-kumar.b.s@capgemini.com</t>
-  </si>
-  <si>
-    <t>&amp;+vc]#h((WpF</t>
-  </si>
-  <si>
-    <t>mayur.bhorkar@capgemini.com</t>
-  </si>
-  <si>
-    <t>L!smG}o?gdA?</t>
   </si>
 </sst>
 </file>
@@ -416,9 +374,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P8"/>
     </sheetView>
   </sheetViews>
@@ -436,7 +394,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,282 +406,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
-        <v>Sourabh</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
-        <v>Awasthi</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
-        <v>sourabh.awasthi</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
-        <v>capgemini</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
-        <v>Capgemini</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandipan</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="2"/>
-        <v>sandipan.deb</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Biswaji</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>Deb</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
-        <v>biswaji.deb</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dhiraj</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Kajari</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>dhiraj.kajari</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Manoj</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>S</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>manoj.kumar.b.s</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>80</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Mayur</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>Bhorkar</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>mayur.bhorkar</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>capgemini</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>ITPartner\Capgemini</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="5"/>
-        <v>capgemini.com</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="6"/>
-        <v>Capgemini</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>80</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I3"/>
+  <dimension ref="C1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I3"/>
@@ -753,22 +435,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
@@ -33,6 +33,54 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>sourabh.awasthi@capgemini.com</t>
+  </si>
+  <si>
+    <t>m@6T9#=(bsiH</t>
+  </si>
+  <si>
+    <t>sandipan.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>0#9rYI[Gp99T</t>
+  </si>
+  <si>
+    <t>sandipan.deb</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>biswaji.deb@capgemini.com</t>
+  </si>
+  <si>
+    <t>m?/Bhrxo*f9R</t>
+  </si>
+  <si>
+    <t>debanjan.das@capgemini.com</t>
+  </si>
+  <si>
+    <t>dhiraj.kajari@capgemini.com</t>
+  </si>
+  <si>
+    <t>bG+")xtY7p5F</t>
+  </si>
+  <si>
+    <t>manoj-kumar.b.s@capgemini.com</t>
+  </si>
+  <si>
+    <t>T9iwTfgDfoR{</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar@capgemini.com</t>
+  </si>
+  <si>
+    <t>m*"y9r5x"F!e</t>
+  </si>
+  <si>
+    <t>mayur.bhorkar</t>
   </si>
 </sst>
 </file>
@@ -374,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P8"/>
@@ -394,7 +442,7 @@
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +454,325 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A7" si="0">PROPER(IFERROR(LEFT(C2,FIND(CHAR(46),C2)-1),C2))</f>
+        <v>Sourabh</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B7" si="1">IFERROR(PROPER(RIGHT(C2,LEN(C2)-FIND("@",SUBSTITUTE(C2,".","@",((LEN(C2)-LEN(SUBSTITUTE(C2,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Awasthi</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="2">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D2,FIND(CHAR(64),D2)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="3">LEFT(H2,FIND(CHAR(46),H2)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="4">CONCATENATE("ITPartner\",I2)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="5">RIGHT(D2,LEN(D2)-FIND(CHAR(64),D2))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I7" si="6">PROPER(E2)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="2"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Biswaji</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Deb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>biswaji.deb</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Das</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Manoj</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="str">
+        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("ITPartner\",I8)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H8" t="str">
+        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I8" t="str">
+        <f>PROPER(E8)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(D:D,D8)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -415,7 +782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I1"/>
+  <dimension ref="C1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I3"/>
@@ -435,6 +802,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>mayur.bhorkar</t>
+  </si>
+  <si>
+    <t>&amp;Np=+4(J2}3z</t>
+  </si>
+  <si>
+    <t>w}xY%3i(gVU8</t>
+  </si>
+  <si>
+    <t>lUI%Uxy@twfW</t>
+  </si>
+  <si>
+    <t>ZC4/UCH+H//x</t>
+  </si>
+  <si>
+    <t>3xkYs}F7UORG</t>
+  </si>
+  <si>
+    <t>a}DB@fw]ZBfX</t>
+  </si>
+  <si>
+    <t>9(fZ)e6AV6M]</t>
   </si>
 </sst>
 </file>
@@ -422,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P8"/>
@@ -499,7 +520,7 @@
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -545,7 +566,7 @@
       </c>
       <c r="P3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -591,7 +612,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -634,7 +655,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -680,7 +701,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -726,39 +747,39 @@
       </c>
       <c r="P7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f>PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
+        <f t="shared" ref="A8:A13" si="8">PROPER(IFERROR(LEFT(C8,FIND(CHAR(46),C8)-1),C8))</f>
         <v>Mayur</v>
       </c>
       <c r="B8" t="str">
-        <f>IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" ref="B8:B13" si="9">IFERROR(PROPER(RIGHT(C8,LEN(C8)-FIND("@",SUBSTITUTE(C8,".","@",((LEN(C8)-LEN(SUBSTITUTE(C8,".","")))/LEN("\")))))), "Unknown")</f>
         <v>Bhorkar</v>
       </c>
       <c r="C8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" ref="C8:C13" si="10">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D8,FIND(CHAR(64),D8)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
         <v>mayur.bhorkar</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="str">
-        <f>LEFT(H8,FIND(CHAR(46),H8)-1)</f>
+        <f t="shared" ref="E8:E13" si="11">LEFT(H8,FIND(CHAR(46),H8)-1)</f>
         <v>capgemini</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE("ITPartner\",I8)</f>
+        <f t="shared" ref="F8:F13" si="12">CONCATENATE("ITPartner\",I8)</f>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H8" t="str">
-        <f>RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
+        <f t="shared" ref="H8:H13" si="13">RIGHT(D8,LEN(D8)-FIND(CHAR(64),D8))</f>
         <v>capgemini.com</v>
       </c>
       <c r="I8" t="str">
-        <f>PROPER(E8)</f>
+        <f t="shared" ref="I8:I13" si="14">PROPER(E8)</f>
         <v>Capgemini</v>
       </c>
       <c r="J8" t="s">
@@ -771,8 +792,330 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <f>COUNTIF(D:D,D8)</f>
-        <v>1</v>
+        <f t="shared" ref="P8:P13" si="15">COUNTIF(D:D,D8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f t="shared" si="8"/>
+        <v>Sourabh</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="9"/>
+        <v>Awasthi</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="10"/>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="12"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="13"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="14"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>81</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f t="shared" si="8"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="9"/>
+        <v>Deb</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="10"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="12"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="13"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="14"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>81</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f t="shared" si="8"/>
+        <v>Biswaji</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="9"/>
+        <v>Deb</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="10"/>
+        <v>biswaji.deb</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="12"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="13"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="14"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>81</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f t="shared" si="8"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="9"/>
+        <v>Das</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="10"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="11"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="12"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="13"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="14"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>81</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f t="shared" si="8"/>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="9"/>
+        <v>Kajari</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="10"/>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="11"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="12"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="13"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="14"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>81</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>PROPER(IFERROR(LEFT(C14,FIND(CHAR(46),C14)-1),C14))</f>
+        <v>Manoj</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IFERROR(PROPER(RIGHT(C14,LEN(C14)-FIND("@",SUBSTITUTE(C14,".","@",((LEN(C14)-LEN(SUBSTITUTE(C14,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>S</v>
+      </c>
+      <c r="C14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D14,FIND(CHAR(64),D14)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="str">
+        <f>LEFT(H14,FIND(CHAR(46),H14)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F14" t="str">
+        <f>CONCATENATE("ITPartner\",I14)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H14" t="str">
+        <f>RIGHT(D14,LEN(D14)-FIND(CHAR(64),D14))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I14" t="str">
+        <f>PROPER(E14)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>81</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>COUNTIF(D:D,D14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>PROPER(IFERROR(LEFT(C15,FIND(CHAR(46),C15)-1),C15))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IFERROR(PROPER(RIGHT(C15,LEN(C15)-FIND("@",SUBSTITUTE(C15,".","@",((LEN(C15)-LEN(SUBSTITUTE(C15,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C15" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D15,FIND(CHAR(64),D15)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="str">
+        <f>LEFT(H15,FIND(CHAR(46),H15)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE("ITPartner\",I15)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H15" t="str">
+        <f>RIGHT(D15,LEN(D15)-FIND(CHAR(64),D15))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I15" t="str">
+        <f>PROPER(E15)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <v>81</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f>COUNTIF(D:D,D15)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I3"/>
+  <dimension ref="C1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I3"/>
@@ -818,6 +1161,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deep1.xlsx
+++ b/Deep1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>FirstName</t>
   </si>
@@ -102,6 +102,48 @@
   </si>
   <si>
     <t>9(fZ)e6AV6M]</t>
+  </si>
+  <si>
+    <t>%+ZN#w1)4TAa</t>
+  </si>
+  <si>
+    <t>"6UUl0IJJ(L[</t>
+  </si>
+  <si>
+    <t>L09Pw&amp;yUfcyl</t>
+  </si>
+  <si>
+    <t>a$3c&amp;C6e/xF5</t>
+  </si>
+  <si>
+    <t>T5IVsi6cu2*6</t>
+  </si>
+  <si>
+    <t>v%/&amp;NL(l}96b</t>
+  </si>
+  <si>
+    <t>!SldB/c8Tc&amp;x</t>
+  </si>
+  <si>
+    <t>"iRC#%@GY[Dw</t>
+  </si>
+  <si>
+    <t>QW+*EBu9Aysv</t>
+  </si>
+  <si>
+    <t>}]VDNkYX/k7{</t>
+  </si>
+  <si>
+    <t>z7Q[k7+3{}5a</t>
+  </si>
+  <si>
+    <t>p=fCvU}BYlAA</t>
+  </si>
+  <si>
+    <t>yw?5Cu{vPZel</t>
+  </si>
+  <si>
+    <t>@pvZlr*!RWL&amp;</t>
   </si>
 </sst>
 </file>
@@ -443,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P8"/>
@@ -520,7 +562,7 @@
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P7" si="7">COUNTIF(D:D,D2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -566,7 +608,7 @@
       </c>
       <c r="P3">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -612,7 +654,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -655,7 +697,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -701,7 +743,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -747,7 +789,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -793,7 +835,7 @@
       </c>
       <c r="P8">
         <f t="shared" ref="P8:P13" si="15">COUNTIF(D:D,D8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -839,7 +881,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -885,7 +927,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -931,7 +973,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -977,7 +1019,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1023,39 +1065,39 @@
       </c>
       <c r="P13">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f>PROPER(IFERROR(LEFT(C14,FIND(CHAR(46),C14)-1),C14))</f>
+        <f t="shared" ref="A14:A19" si="16">PROPER(IFERROR(LEFT(C14,FIND(CHAR(46),C14)-1),C14))</f>
         <v>Manoj</v>
       </c>
       <c r="B14" t="str">
-        <f>IFERROR(PROPER(RIGHT(C14,LEN(C14)-FIND("@",SUBSTITUTE(C14,".","@",((LEN(C14)-LEN(SUBSTITUTE(C14,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" ref="B14:B19" si="17">IFERROR(PROPER(RIGHT(C14,LEN(C14)-FIND("@",SUBSTITUTE(C14,".","@",((LEN(C14)-LEN(SUBSTITUTE(C14,".","")))/LEN("\")))))), "Unknown")</f>
         <v>S</v>
       </c>
       <c r="C14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D14,FIND(CHAR(64),D14)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" ref="C14:C19" si="18">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D14,FIND(CHAR(64),D14)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
         <v>manoj.kumar.b.s</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="str">
-        <f>LEFT(H14,FIND(CHAR(46),H14)-1)</f>
+        <f t="shared" ref="E14:E19" si="19">LEFT(H14,FIND(CHAR(46),H14)-1)</f>
         <v>capgemini</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE("ITPartner\",I14)</f>
+        <f t="shared" ref="F14:F19" si="20">CONCATENATE("ITPartner\",I14)</f>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H14" t="str">
-        <f>RIGHT(D14,LEN(D14)-FIND(CHAR(64),D14))</f>
+        <f t="shared" ref="H14:H19" si="21">RIGHT(D14,LEN(D14)-FIND(CHAR(64),D14))</f>
         <v>capgemini.com</v>
       </c>
       <c r="I14" t="str">
-        <f>PROPER(E14)</f>
+        <f t="shared" ref="I14:I19" si="22">PROPER(E14)</f>
         <v>Capgemini</v>
       </c>
       <c r="J14" t="s">
@@ -1068,40 +1110,40 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <f>COUNTIF(D:D,D14)</f>
-        <v>2</v>
+        <f t="shared" ref="P14:P19" si="23">COUNTIF(D:D,D14)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <f>PROPER(IFERROR(LEFT(C15,FIND(CHAR(46),C15)-1),C15))</f>
+        <f t="shared" si="16"/>
         <v>Mayur</v>
       </c>
       <c r="B15" t="str">
-        <f>IFERROR(PROPER(RIGHT(C15,LEN(C15)-FIND("@",SUBSTITUTE(C15,".","@",((LEN(C15)-LEN(SUBSTITUTE(C15,".","")))/LEN("\")))))), "Unknown")</f>
+        <f t="shared" si="17"/>
         <v>Bhorkar</v>
       </c>
       <c r="C15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D15,FIND(CHAR(64),D15)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <f t="shared" si="18"/>
         <v>mayur.bhorkar</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="str">
-        <f>LEFT(H15,FIND(CHAR(46),H15)-1)</f>
+        <f t="shared" si="19"/>
         <v>capgemini</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE("ITPartner\",I15)</f>
+        <f t="shared" si="20"/>
         <v>ITPartner\Capgemini</v>
       </c>
       <c r="H15" t="str">
-        <f>RIGHT(D15,LEN(D15)-FIND(CHAR(64),D15))</f>
+        <f t="shared" si="21"/>
         <v>capgemini.com</v>
       </c>
       <c r="I15" t="str">
-        <f>PROPER(E15)</f>
+        <f t="shared" si="22"/>
         <v>Capgemini</v>
       </c>
       <c r="J15" t="s">
@@ -1114,8 +1156,652 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <f>COUNTIF(D:D,D15)</f>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f t="shared" si="16"/>
+        <v>Sourabh</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="17"/>
+        <v>Awasthi</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="18"/>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="19"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="20"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="21"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="22"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>83</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f t="shared" si="16"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="17"/>
+        <v>Deb</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="18"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="19"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="20"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="21"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="22"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>83</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f t="shared" si="16"/>
+        <v>Biswaji</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="17"/>
+        <v>Deb</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="18"/>
+        <v>biswaji.deb</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="19"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="20"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="21"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="22"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>83</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" si="16"/>
+        <v>Debanjan</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="17"/>
+        <v>Das</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="18"/>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="19"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="20"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="21"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="22"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>83</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" ref="A20:A25" si="24">PROPER(IFERROR(LEFT(C20,FIND(CHAR(46),C20)-1),C20))</f>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" ref="B20:B25" si="25">IFERROR(PROPER(RIGHT(C20,LEN(C20)-FIND("@",SUBSTITUTE(C20,".","@",((LEN(C20)-LEN(SUBSTITUTE(C20,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Kajari</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:C25" si="26">SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D20,FIND(CHAR(64),D20)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ref="E20:E25" si="27">LEFT(H20,FIND(CHAR(46),H20)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ref="F20:F25" si="28">CONCATENATE("ITPartner\",I20)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ref="H20:H25" si="29">RIGHT(D20,LEN(D20)-FIND(CHAR(64),D20))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ref="I20:I25" si="30">PROPER(E20)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20">
+        <v>83</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:P25" si="31">COUNTIF(D:D,D20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f t="shared" si="24"/>
+        <v>Manoj</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="25"/>
+        <v>S</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="26"/>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="27"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="28"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="29"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="30"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>83</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f t="shared" si="24"/>
+        <v>Mayur</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="25"/>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="26"/>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="27"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="28"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="29"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="30"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>83</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f t="shared" si="24"/>
+        <v>Sourabh</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="25"/>
+        <v>Awasthi</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="26"/>
+        <v>sourabh.awasthi</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="27"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="28"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="29"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="30"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>84</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f t="shared" si="24"/>
+        <v>Sandipan</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="25"/>
+        <v>Deb</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="26"/>
+        <v>sandipan.deb</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="27"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="28"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="29"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="30"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24">
+        <v>84</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f t="shared" si="24"/>
+        <v>Biswaji</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="25"/>
+        <v>Deb</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="26"/>
+        <v>biswaji.deb</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="27"/>
+        <v>capgemini</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="28"/>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="29"/>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="30"/>
+        <v>Capgemini</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>84</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>PROPER(IFERROR(LEFT(C26,FIND(CHAR(46),C26)-1),C26))</f>
+        <v>Debanjan</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IFERROR(PROPER(RIGHT(C26,LEN(C26)-FIND("@",SUBSTITUTE(C26,".","@",((LEN(C26)-LEN(SUBSTITUTE(C26,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Das</v>
+      </c>
+      <c r="C26" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D26,FIND(CHAR(64),D26)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>debanjan.das</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="str">
+        <f>LEFT(H26,FIND(CHAR(46),H26)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F26" t="str">
+        <f>CONCATENATE("ITPartner\",I26)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H26" t="str">
+        <f>RIGHT(D26,LEN(D26)-FIND(CHAR(64),D26))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I26" t="str">
+        <f>PROPER(E26)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26">
+        <v>84</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f>COUNTIF(D:D,D26)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>PROPER(IFERROR(LEFT(C27,FIND(CHAR(46),C27)-1),C27))</f>
+        <v>Dhiraj</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IFERROR(PROPER(RIGHT(C27,LEN(C27)-FIND("@",SUBSTITUTE(C27,".","@",((LEN(C27)-LEN(SUBSTITUTE(C27,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Kajari</v>
+      </c>
+      <c r="C27" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D27,FIND(CHAR(64),D27)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>dhiraj.kajari</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="str">
+        <f>LEFT(H27,FIND(CHAR(46),H27)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F27" t="str">
+        <f>CONCATENATE("ITPartner\",I27)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H27" t="str">
+        <f>RIGHT(D27,LEN(D27)-FIND(CHAR(64),D27))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I27" t="str">
+        <f>PROPER(E27)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>84</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f>COUNTIF(D:D,D27)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>PROPER(IFERROR(LEFT(C28,FIND(CHAR(46),C28)-1),C28))</f>
+        <v>Manoj</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IFERROR(PROPER(RIGHT(C28,LEN(C28)-FIND("@",SUBSTITUTE(C28,".","@",((LEN(C28)-LEN(SUBSTITUTE(C28,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>S</v>
+      </c>
+      <c r="C28" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D28,FIND(CHAR(64),D28)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>manoj.kumar.b.s</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="str">
+        <f>LEFT(H28,FIND(CHAR(46),H28)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F28" t="str">
+        <f>CONCATENATE("ITPartner\",I28)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H28" t="str">
+        <f>RIGHT(D28,LEN(D28)-FIND(CHAR(64),D28))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I28" t="str">
+        <f>PROPER(E28)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>84</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f>COUNTIF(D:D,D28)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>PROPER(IFERROR(LEFT(C29,FIND(CHAR(46),C29)-1),C29))</f>
+        <v>Mayur</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IFERROR(PROPER(RIGHT(C29,LEN(C29)-FIND("@",SUBSTITUTE(C29,".","@",((LEN(C29)-LEN(SUBSTITUTE(C29,".","")))/LEN("\")))))), "Unknown")</f>
+        <v>Bhorkar</v>
+      </c>
+      <c r="C29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(LEFT(D29,FIND(CHAR(64),D29)-1)),CHAR(45),CHAR(46)),CHAR(95),CHAR(46))</f>
+        <v>mayur.bhorkar</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="str">
+        <f>LEFT(H29,FIND(CHAR(46),H29)-1)</f>
+        <v>capgemini</v>
+      </c>
+      <c r="F29" t="str">
+        <f>CONCATENATE("ITPartner\",I29)</f>
+        <v>ITPartner\Capgemini</v>
+      </c>
+      <c r="H29" t="str">
+        <f>RIGHT(D29,LEN(D29)-FIND(CHAR(64),D29))</f>
+        <v>capgemini.com</v>
+      </c>
+      <c r="I29" t="str">
+        <f>PROPER(E29)</f>
+        <v>Capgemini</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>84</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f>COUNTIF(D:D,D29)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I5"/>
+  <dimension ref="C1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I3"/>
@@ -1177,6 +1863,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
